--- a/318实验室经费支出明细.xlsx
+++ b/318实验室经费支出明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>318实验室经费开支明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,22 @@
   </si>
   <si>
     <t>办公用品(插排)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018139(收据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用品（钥匙）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未结算额度40元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -233,7 +249,18 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -244,12 +271,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -262,12 +285,16 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -571,22 +598,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="9" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -598,15 +626,16 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
@@ -625,8 +654,11 @@
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -640,12 +672,13 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="4">
         <v>42836</v>
       </c>
       <c r="D4" t="s">
@@ -661,11 +694,11 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="4">
         <v>42836</v>
       </c>
       <c r="E5" t="s">
@@ -682,11 +715,11 @@
         <v>701</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="4">
         <v>42836</v>
       </c>
       <c r="E6" t="s">
@@ -703,11 +736,11 @@
         <v>662</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="4">
         <v>42836</v>
       </c>
       <c r="E7" t="s">
@@ -724,10 +757,35 @@
         <v>617</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4">
+        <v>42837</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <f>I7-G8</f>
+        <v>607</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A1:I1"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
